--- a/VersionRecords/Version 5.1.8 20161215/版本Bug和特性计划及评审表v5.1.8_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.8 20161215/版本Bug和特性计划及评审表v5.1.8_捷豹组.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.2.0.6_beta 20161209/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.1.8 20161215/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.2.0.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.1.8 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="定时器" sheetId="10" r:id="rId2"/>
     <sheet name="上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="配置文件（测试环境）" sheetId="9" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.2.0.6 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.8 新特性|Fix Bug'!$A$1:$U$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -376,6 +376,122 @@
     <rPh sb="0" eb="1">
       <t>s'c</t>
     </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东解约租客不可在线支付</t>
+    <rPh sb="0" eb="1">
+      <t>fang'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'ke</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zia'xian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterembed</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>武孟华</t>
+    <rPh sb="0" eb="1">
+      <t>w'm'h</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <rPh sb="0" eb="1">
+      <t>y'x'z</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改租客登记可以修改租客手机号</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiu'g</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shou'ij'h</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>c'b</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>【租客登记】租客登记电子合同，租客端查看的是纸质合同</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客登记】租约列表，房源地址不展示“单元”信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客登记】租客登记，录入付一押金自定义保存时报错，押金与租金不平</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客登记】租客登记保存提示系统异常</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>【租客登记】修改租约为账单已结清未生效</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc、payapi</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -770,19 +886,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -793,7 +896,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,8 +985,146 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,9 +1269,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1052,13 +1290,13 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1143,7 +1381,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="78">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1164,6 +1402,29 @@
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="个性色4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
@@ -1176,6 +1437,29 @@
     <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1548,7 +1832,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1665,13 +1949,13 @@
         <v>74</v>
       </c>
       <c r="H2" s="39">
-        <v>42712</v>
+        <v>42718</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="39">
-        <v>42712</v>
+        <v>42718</v>
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="47" t="s">
@@ -1687,16 +1971,16 @@
         <v>79</v>
       </c>
       <c r="P2" s="39">
-        <v>42712</v>
+        <v>42718</v>
       </c>
       <c r="Q2" s="47" t="s">
         <v>80</v>
       </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="54"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="53"/>
     </row>
     <row r="3" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="36">
@@ -1715,19 +1999,19 @@
         <v>72</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>74</v>
       </c>
       <c r="H3" s="39">
-        <v>42712</v>
+        <v>42718</v>
       </c>
       <c r="I3" s="38" t="s">
         <v>74</v>
       </c>
       <c r="J3" s="39">
-        <v>42712</v>
+        <v>42718</v>
       </c>
       <c r="K3" s="38"/>
       <c r="L3" s="47" t="s">
@@ -1743,16 +2027,16 @@
         <v>79</v>
       </c>
       <c r="P3" s="39">
-        <v>42712</v>
+        <v>42718</v>
       </c>
       <c r="Q3" s="47" t="s">
         <v>80</v>
       </c>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="54"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A4" s="36">
@@ -1777,13 +2061,13 @@
         <v>74</v>
       </c>
       <c r="H4" s="39">
-        <v>42712</v>
+        <v>42718</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="39">
-        <v>42712</v>
+        <v>42718</v>
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="47" t="s">
@@ -1799,184 +2083,418 @@
         <v>79</v>
       </c>
       <c r="P4" s="39">
-        <v>42712</v>
+        <v>42718</v>
       </c>
       <c r="Q4" s="47" t="s">
         <v>80</v>
       </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
-    </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+    </row>
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="39">
+        <v>42718</v>
+      </c>
       <c r="K5" s="38"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="47"/>
+      <c r="L5" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="39">
+        <v>42718</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>80</v>
+      </c>
       <c r="R5" s="44"/>
       <c r="S5" s="44"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="54"/>
-    </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="53"/>
+    </row>
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="39">
+        <v>42718</v>
+      </c>
       <c r="K6" s="38"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="47"/>
+      <c r="L6" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="39">
+        <v>42718</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>80</v>
+      </c>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="54"/>
-    </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="53"/>
+    </row>
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="39">
+        <v>42718</v>
+      </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="44"/>
+      <c r="L7" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="39">
+        <v>42718</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="44">
+        <v>6381</v>
+      </c>
       <c r="S7" s="44"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="54"/>
-    </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="53"/>
+    </row>
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="39">
+        <v>42718</v>
+      </c>
       <c r="K8" s="38"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="44"/>
+      <c r="L8" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="39">
+        <v>42718</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="44">
+        <v>6374</v>
+      </c>
       <c r="S8" s="44"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="54"/>
-    </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="53"/>
+    </row>
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="39">
+        <v>42718</v>
+      </c>
       <c r="K9" s="38"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="54"/>
-    </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="L9" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="39">
+        <v>42718</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="55">
+        <v>6348</v>
+      </c>
+      <c r="S9" s="55"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="53"/>
+    </row>
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="39">
+        <v>42718</v>
+      </c>
       <c r="K10" s="38"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="44"/>
+      <c r="L10" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="39">
+        <v>42718</v>
+      </c>
+      <c r="Q10" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="44">
+        <v>6225</v>
+      </c>
       <c r="S10" s="44"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="54"/>
-    </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="53"/>
+    </row>
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="39">
+        <v>42718</v>
+      </c>
       <c r="K11" s="38"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="44"/>
+      <c r="L11" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="39">
+        <v>42718</v>
+      </c>
+      <c r="Q11" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="44">
+        <v>6433</v>
+      </c>
       <c r="S11" s="44"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="54"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="53"/>
     </row>
     <row r="12" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
@@ -1998,9 +2516,9 @@
       <c r="Q12" s="47"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="54"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="53"/>
     </row>
     <row r="13" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
@@ -2022,9 +2540,9 @@
       <c r="Q13" s="47"/>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="54"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="53"/>
     </row>
     <row r="14" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
@@ -2046,9 +2564,9 @@
       <c r="Q14" s="47"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="54"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="53"/>
     </row>
     <row r="15" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
@@ -2071,8 +2589,8 @@
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="53"/>
     </row>
     <row r="16" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
@@ -2095,8 +2613,8 @@
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="53"/>
     </row>
     <row r="17" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
@@ -2109,18 +2627,18 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="49"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="47"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="50"/>
+      <c r="O17" s="49"/>
       <c r="P17" s="39"/>
-      <c r="Q17" s="50"/>
+      <c r="Q17" s="49"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="54"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="53"/>
     </row>
     <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
@@ -2133,7 +2651,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="51"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="47"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -2156,7 +2674,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
-      <c r="K19" s="51"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="47"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -2179,11 +2697,11 @@
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="51"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="47"/>
       <c r="M20" s="38"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="52"/>
+      <c r="O20" s="51"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="44"/>
@@ -2212,7 +2730,7 @@
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
-      <c r="U21" s="55"/>
+      <c r="U21" s="54"/>
     </row>
     <row r="22" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
@@ -2235,7 +2753,7 @@
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
-      <c r="U22" s="55"/>
+      <c r="U22" s="54"/>
     </row>
     <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
@@ -2258,7 +2776,7 @@
       <c r="R23" s="44"/>
       <c r="S23" s="44"/>
       <c r="T23" s="44"/>
-      <c r="U23" s="55"/>
+      <c r="U23" s="54"/>
     </row>
     <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
@@ -2278,10 +2796,10 @@
       <c r="O24" s="47"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="59"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="58"/>
     </row>
     <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
@@ -2301,10 +2819,10 @@
       <c r="O25" s="47"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="47"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="58"/>
     </row>
     <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
@@ -2324,10 +2842,10 @@
       <c r="O26" s="47"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="47"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="58"/>
     </row>
     <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
@@ -2347,10 +2865,10 @@
       <c r="O27" s="47"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="58"/>
     </row>
     <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
@@ -2370,10 +2888,10 @@
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="58"/>
     </row>
     <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
@@ -2393,9 +2911,9 @@
       <c r="O29" s="47"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="47"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
       <c r="U29" s="47"/>
     </row>
     <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.15">
@@ -2419,7 +2937,7 @@
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
-      <c r="U30" s="55"/>
+      <c r="U30" s="54"/>
     </row>
     <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
@@ -2442,7 +2960,7 @@
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
-      <c r="U31" s="55"/>
+      <c r="U31" s="54"/>
     </row>
     <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
@@ -2465,7 +2983,7 @@
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
-      <c r="U32" s="55"/>
+      <c r="U32" s="54"/>
     </row>
     <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
@@ -2485,10 +3003,10 @@
       <c r="O33" s="47"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="47"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="58"/>
     </row>
     <row r="34" spans="1:21" ht="48" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
@@ -2511,7 +3029,7 @@
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-      <c r="U34" s="53" t="s">
+      <c r="U34" s="52" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2536,7 +3054,7 @@
       <c r="R35" s="44"/>
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
-      <c r="U35" s="55"/>
+      <c r="U35" s="54"/>
     </row>
     <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
@@ -2559,7 +3077,7 @@
       <c r="R36" s="44"/>
       <c r="S36" s="44"/>
       <c r="T36" s="44"/>
-      <c r="U36" s="55"/>
+      <c r="U36" s="54"/>
     </row>
     <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
@@ -2582,7 +3100,7 @@
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
       <c r="T37" s="44"/>
-      <c r="U37" s="55"/>
+      <c r="U37" s="54"/>
     </row>
     <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
@@ -2605,7 +3123,7 @@
       <c r="R38" s="44"/>
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
-      <c r="U38" s="55"/>
+      <c r="U38" s="54"/>
     </row>
     <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
@@ -2628,7 +3146,7 @@
       <c r="R39" s="44"/>
       <c r="S39" s="44"/>
       <c r="T39" s="44"/>
-      <c r="U39" s="55"/>
+      <c r="U39" s="54"/>
     </row>
     <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
@@ -2651,7 +3169,7 @@
       <c r="R40" s="44"/>
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
-      <c r="U40" s="55"/>
+      <c r="U40" s="54"/>
     </row>
     <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
@@ -2674,7 +3192,7 @@
       <c r="R41" s="44"/>
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
-      <c r="U41" s="55"/>
+      <c r="U41" s="54"/>
     </row>
     <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
@@ -2697,7 +3215,7 @@
       <c r="R42" s="44"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
-      <c r="U42" s="55"/>
+      <c r="U42" s="54"/>
     </row>
     <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
@@ -2720,7 +3238,7 @@
       <c r="R43" s="44"/>
       <c r="S43" s="44"/>
       <c r="T43" s="44"/>
-      <c r="U43" s="55"/>
+      <c r="U43" s="54"/>
     </row>
     <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
@@ -2743,7 +3261,7 @@
       <c r="R44" s="44"/>
       <c r="S44" s="44"/>
       <c r="T44" s="44"/>
-      <c r="U44" s="55"/>
+      <c r="U44" s="54"/>
     </row>
     <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
@@ -2763,10 +3281,10 @@
       <c r="O45" s="47"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="47"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="54"/>
     </row>
     <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
@@ -2786,10 +3304,10 @@
       <c r="O46" s="47"/>
       <c r="P46" s="39"/>
       <c r="Q46" s="47"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="54"/>
     </row>
     <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
@@ -2802,7 +3320,7 @@
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
       <c r="J47" s="39"/>
-      <c r="K47" s="51"/>
+      <c r="K47" s="50"/>
       <c r="L47" s="47"/>
       <c r="M47" s="47"/>
       <c r="N47" s="38"/>
@@ -2825,7 +3343,7 @@
       <c r="H48" s="39"/>
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
-      <c r="K48" s="51"/>
+      <c r="K48" s="50"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
       <c r="N48" s="38"/>
@@ -2848,7 +3366,7 @@
       <c r="H49" s="39"/>
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
-      <c r="K49" s="51"/>
+      <c r="K49" s="50"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
       <c r="N49" s="38"/>
@@ -2871,7 +3389,7 @@
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
       <c r="J50" s="39"/>
-      <c r="K50" s="51"/>
+      <c r="K50" s="50"/>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
       <c r="N50" s="38"/>
@@ -2894,7 +3412,7 @@
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
       <c r="J51" s="39"/>
-      <c r="K51" s="51"/>
+      <c r="K51" s="50"/>
       <c r="L51" s="47"/>
       <c r="M51" s="47"/>
       <c r="N51" s="38"/>
@@ -2917,7 +3435,7 @@
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
       <c r="J52" s="39"/>
-      <c r="K52" s="51"/>
+      <c r="K52" s="50"/>
       <c r="L52" s="47"/>
       <c r="M52" s="47"/>
       <c r="N52" s="38"/>
@@ -2940,7 +3458,7 @@
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
-      <c r="K53" s="51"/>
+      <c r="K53" s="50"/>
       <c r="L53" s="47"/>
       <c r="M53" s="47"/>
       <c r="N53" s="38"/>
@@ -2963,7 +3481,7 @@
       <c r="H54" s="46"/>
       <c r="I54" s="44"/>
       <c r="J54" s="46"/>
-      <c r="K54" s="51"/>
+      <c r="K54" s="50"/>
       <c r="L54" s="44"/>
       <c r="M54" s="44"/>
       <c r="N54" s="44"/>
@@ -2986,7 +3504,7 @@
       <c r="H55" s="46"/>
       <c r="I55" s="44"/>
       <c r="J55" s="46"/>
-      <c r="K55" s="51"/>
+      <c r="K55" s="50"/>
       <c r="L55" s="44"/>
       <c r="M55" s="44"/>
       <c r="N55" s="44"/>
@@ -3009,7 +3527,7 @@
       <c r="H56" s="46"/>
       <c r="I56" s="44"/>
       <c r="J56" s="46"/>
-      <c r="K56" s="51"/>
+      <c r="K56" s="50"/>
       <c r="L56" s="44"/>
       <c r="M56" s="44"/>
       <c r="N56" s="44"/>
@@ -3032,7 +3550,7 @@
       <c r="H57" s="46"/>
       <c r="I57" s="44"/>
       <c r="J57" s="46"/>
-      <c r="K57" s="51"/>
+      <c r="K57" s="50"/>
       <c r="L57" s="44"/>
       <c r="M57" s="44"/>
       <c r="N57" s="44"/>
@@ -3055,7 +3573,7 @@
       <c r="H58" s="46"/>
       <c r="I58" s="44"/>
       <c r="J58" s="46"/>
-      <c r="K58" s="51"/>
+      <c r="K58" s="50"/>
       <c r="L58" s="44"/>
       <c r="M58" s="44"/>
       <c r="N58" s="44"/>
@@ -3078,7 +3596,7 @@
       <c r="H59" s="46"/>
       <c r="I59" s="44"/>
       <c r="J59" s="46"/>
-      <c r="K59" s="51"/>
+      <c r="K59" s="50"/>
       <c r="L59" s="44"/>
       <c r="M59" s="44"/>
       <c r="N59" s="44"/>
@@ -3101,7 +3619,7 @@
       <c r="H60" s="46"/>
       <c r="I60" s="44"/>
       <c r="J60" s="46"/>
-      <c r="K60" s="51"/>
+      <c r="K60" s="50"/>
       <c r="L60" s="44"/>
       <c r="M60" s="44"/>
       <c r="N60" s="44"/>
@@ -3124,7 +3642,7 @@
       <c r="H61" s="46"/>
       <c r="I61" s="44"/>
       <c r="J61" s="46"/>
-      <c r="K61" s="51"/>
+      <c r="K61" s="50"/>
       <c r="L61" s="44"/>
       <c r="M61" s="44"/>
       <c r="N61" s="44"/>
@@ -3147,7 +3665,7 @@
       <c r="H62" s="46"/>
       <c r="I62" s="44"/>
       <c r="J62" s="46"/>
-      <c r="K62" s="51"/>
+      <c r="K62" s="50"/>
       <c r="L62" s="44"/>
       <c r="M62" s="44"/>
       <c r="N62" s="44"/>
@@ -3170,7 +3688,7 @@
       <c r="H63" s="46"/>
       <c r="I63" s="44"/>
       <c r="J63" s="46"/>
-      <c r="K63" s="51"/>
+      <c r="K63" s="50"/>
       <c r="L63" s="44"/>
       <c r="M63" s="44"/>
       <c r="N63" s="44"/>
@@ -3193,7 +3711,7 @@
       <c r="H64" s="46"/>
       <c r="I64" s="44"/>
       <c r="J64" s="46"/>
-      <c r="K64" s="51"/>
+      <c r="K64" s="50"/>
       <c r="L64" s="44"/>
       <c r="M64" s="44"/>
       <c r="N64" s="44"/>
@@ -3216,7 +3734,7 @@
       <c r="H65" s="46"/>
       <c r="I65" s="44"/>
       <c r="J65" s="46"/>
-      <c r="K65" s="51"/>
+      <c r="K65" s="50"/>
       <c r="L65" s="44"/>
       <c r="M65" s="44"/>
       <c r="N65" s="44"/>
@@ -3239,7 +3757,7 @@
       <c r="H66" s="46"/>
       <c r="I66" s="44"/>
       <c r="J66" s="46"/>
-      <c r="K66" s="51"/>
+      <c r="K66" s="50"/>
       <c r="L66" s="44"/>
       <c r="M66" s="44"/>
       <c r="N66" s="44"/>
@@ -3262,7 +3780,7 @@
       <c r="H67" s="46"/>
       <c r="I67" s="44"/>
       <c r="J67" s="46"/>
-      <c r="K67" s="51"/>
+      <c r="K67" s="50"/>
       <c r="L67" s="44"/>
       <c r="M67" s="44"/>
       <c r="N67" s="44"/>
@@ -3285,7 +3803,7 @@
       <c r="H68" s="46"/>
       <c r="I68" s="44"/>
       <c r="J68" s="46"/>
-      <c r="K68" s="51"/>
+      <c r="K68" s="50"/>
       <c r="L68" s="44"/>
       <c r="M68" s="44"/>
       <c r="N68" s="44"/>
@@ -3308,7 +3826,7 @@
       <c r="H69" s="46"/>
       <c r="I69" s="44"/>
       <c r="J69" s="46"/>
-      <c r="K69" s="51"/>
+      <c r="K69" s="50"/>
       <c r="L69" s="44"/>
       <c r="M69" s="44"/>
       <c r="N69" s="44"/>
@@ -3331,7 +3849,7 @@
       <c r="H70" s="46"/>
       <c r="I70" s="44"/>
       <c r="J70" s="46"/>
-      <c r="K70" s="51"/>
+      <c r="K70" s="50"/>
       <c r="L70" s="44"/>
       <c r="M70" s="44"/>
       <c r="N70" s="44"/>
@@ -3354,7 +3872,7 @@
       <c r="H71" s="46"/>
       <c r="I71" s="44"/>
       <c r="J71" s="46"/>
-      <c r="K71" s="51"/>
+      <c r="K71" s="50"/>
       <c r="L71" s="44"/>
       <c r="M71" s="44"/>
       <c r="N71" s="44"/>
@@ -3377,7 +3895,7 @@
       <c r="H72" s="46"/>
       <c r="I72" s="44"/>
       <c r="J72" s="46"/>
-      <c r="K72" s="51"/>
+      <c r="K72" s="50"/>
       <c r="L72" s="44"/>
       <c r="M72" s="44"/>
       <c r="N72" s="44"/>
@@ -3400,7 +3918,7 @@
       <c r="H73" s="46"/>
       <c r="I73" s="44"/>
       <c r="J73" s="46"/>
-      <c r="K73" s="51"/>
+      <c r="K73" s="50"/>
       <c r="L73" s="44"/>
       <c r="M73" s="44"/>
       <c r="N73" s="44"/>
@@ -3423,7 +3941,7 @@
       <c r="H74" s="46"/>
       <c r="I74" s="44"/>
       <c r="J74" s="46"/>
-      <c r="K74" s="51"/>
+      <c r="K74" s="50"/>
       <c r="L74" s="44"/>
       <c r="M74" s="44"/>
       <c r="N74" s="44"/>
@@ -3446,7 +3964,7 @@
       <c r="H75" s="46"/>
       <c r="I75" s="44"/>
       <c r="J75" s="46"/>
-      <c r="K75" s="51"/>
+      <c r="K75" s="50"/>
       <c r="L75" s="44"/>
       <c r="M75" s="44"/>
       <c r="N75" s="44"/>
@@ -3469,7 +3987,7 @@
       <c r="H76" s="46"/>
       <c r="I76" s="44"/>
       <c r="J76" s="46"/>
-      <c r="K76" s="51"/>
+      <c r="K76" s="50"/>
       <c r="L76" s="44"/>
       <c r="M76" s="44"/>
       <c r="N76" s="44"/>
@@ -3492,7 +4010,7 @@
       <c r="H77" s="46"/>
       <c r="I77" s="44"/>
       <c r="J77" s="46"/>
-      <c r="K77" s="51"/>
+      <c r="K77" s="50"/>
       <c r="L77" s="44"/>
       <c r="M77" s="44"/>
       <c r="N77" s="44"/>
@@ -3515,7 +4033,7 @@
       <c r="H78" s="46"/>
       <c r="I78" s="44"/>
       <c r="J78" s="46"/>
-      <c r="K78" s="51"/>
+      <c r="K78" s="50"/>
       <c r="L78" s="44"/>
       <c r="M78" s="44"/>
       <c r="N78" s="44"/>
@@ -3538,7 +4056,7 @@
       <c r="H79" s="46"/>
       <c r="I79" s="44"/>
       <c r="J79" s="46"/>
-      <c r="K79" s="51"/>
+      <c r="K79" s="50"/>
       <c r="L79" s="44"/>
       <c r="M79" s="44"/>
       <c r="N79" s="44"/>
@@ -3561,7 +4079,7 @@
       <c r="H80" s="46"/>
       <c r="I80" s="44"/>
       <c r="J80" s="46"/>
-      <c r="K80" s="51"/>
+      <c r="K80" s="50"/>
       <c r="L80" s="44"/>
       <c r="M80" s="44"/>
       <c r="N80" s="44"/>
@@ -3584,7 +4102,7 @@
       <c r="H81" s="46"/>
       <c r="I81" s="44"/>
       <c r="J81" s="46"/>
-      <c r="K81" s="51"/>
+      <c r="K81" s="50"/>
       <c r="L81" s="44"/>
       <c r="M81" s="44"/>
       <c r="N81" s="44"/>
@@ -3607,7 +4125,7 @@
       <c r="H82" s="46"/>
       <c r="I82" s="44"/>
       <c r="J82" s="46"/>
-      <c r="K82" s="51"/>
+      <c r="K82" s="50"/>
       <c r="L82" s="44"/>
       <c r="M82" s="44"/>
       <c r="N82" s="44"/>
@@ -3630,7 +4148,7 @@
       <c r="H83" s="46"/>
       <c r="I83" s="44"/>
       <c r="J83" s="46"/>
-      <c r="K83" s="51"/>
+      <c r="K83" s="50"/>
       <c r="L83" s="44"/>
       <c r="M83" s="44"/>
       <c r="N83" s="44"/>
@@ -3653,7 +4171,7 @@
       <c r="H84" s="46"/>
       <c r="I84" s="44"/>
       <c r="J84" s="46"/>
-      <c r="K84" s="51"/>
+      <c r="K84" s="50"/>
       <c r="L84" s="44"/>
       <c r="M84" s="44"/>
       <c r="N84" s="44"/>
@@ -3676,7 +4194,7 @@
       <c r="H85" s="46"/>
       <c r="I85" s="44"/>
       <c r="J85" s="46"/>
-      <c r="K85" s="51"/>
+      <c r="K85" s="50"/>
       <c r="L85" s="44"/>
       <c r="M85" s="44"/>
       <c r="N85" s="44"/>
@@ -3699,7 +4217,7 @@
       <c r="H86" s="46"/>
       <c r="I86" s="44"/>
       <c r="J86" s="46"/>
-      <c r="K86" s="51"/>
+      <c r="K86" s="50"/>
       <c r="L86" s="44"/>
       <c r="M86" s="44"/>
       <c r="N86" s="44"/>
@@ -3722,7 +4240,7 @@
       <c r="H87" s="46"/>
       <c r="I87" s="44"/>
       <c r="J87" s="46"/>
-      <c r="K87" s="51"/>
+      <c r="K87" s="50"/>
       <c r="L87" s="44"/>
       <c r="M87" s="44"/>
       <c r="N87" s="44"/>
@@ -3745,7 +4263,7 @@
       <c r="H88" s="46"/>
       <c r="I88" s="44"/>
       <c r="J88" s="46"/>
-      <c r="K88" s="51"/>
+      <c r="K88" s="50"/>
       <c r="L88" s="44"/>
       <c r="M88" s="44"/>
       <c r="N88" s="44"/>
@@ -3768,7 +4286,7 @@
       <c r="H89" s="46"/>
       <c r="I89" s="44"/>
       <c r="J89" s="46"/>
-      <c r="K89" s="51"/>
+      <c r="K89" s="50"/>
       <c r="L89" s="44"/>
       <c r="M89" s="44"/>
       <c r="N89" s="44"/>
@@ -3791,7 +4309,7 @@
       <c r="H90" s="46"/>
       <c r="I90" s="44"/>
       <c r="J90" s="46"/>
-      <c r="K90" s="51"/>
+      <c r="K90" s="50"/>
       <c r="L90" s="44"/>
       <c r="M90" s="44"/>
       <c r="N90" s="44"/>
@@ -3814,7 +4332,7 @@
       <c r="H91" s="46"/>
       <c r="I91" s="44"/>
       <c r="J91" s="46"/>
-      <c r="K91" s="51"/>
+      <c r="K91" s="50"/>
       <c r="L91" s="44"/>
       <c r="M91" s="44"/>
       <c r="N91" s="44"/>
@@ -3837,7 +4355,7 @@
       <c r="H92" s="46"/>
       <c r="I92" s="44"/>
       <c r="J92" s="46"/>
-      <c r="K92" s="51"/>
+      <c r="K92" s="50"/>
       <c r="L92" s="44"/>
       <c r="M92" s="44"/>
       <c r="N92" s="44"/>
@@ -3860,7 +4378,7 @@
       <c r="H93" s="46"/>
       <c r="I93" s="44"/>
       <c r="J93" s="46"/>
-      <c r="K93" s="51"/>
+      <c r="K93" s="50"/>
       <c r="L93" s="44"/>
       <c r="M93" s="44"/>
       <c r="N93" s="44"/>
@@ -3883,7 +4401,7 @@
       <c r="H94" s="46"/>
       <c r="I94" s="44"/>
       <c r="J94" s="46"/>
-      <c r="K94" s="51"/>
+      <c r="K94" s="50"/>
       <c r="L94" s="44"/>
       <c r="M94" s="44"/>
       <c r="N94" s="44"/>
@@ -3906,7 +4424,7 @@
       <c r="H95" s="46"/>
       <c r="I95" s="44"/>
       <c r="J95" s="46"/>
-      <c r="K95" s="51"/>
+      <c r="K95" s="50"/>
       <c r="L95" s="44"/>
       <c r="M95" s="44"/>
       <c r="N95" s="44"/>
@@ -3929,7 +4447,7 @@
       <c r="H96" s="46"/>
       <c r="I96" s="44"/>
       <c r="J96" s="46"/>
-      <c r="K96" s="51"/>
+      <c r="K96" s="50"/>
       <c r="L96" s="44"/>
       <c r="M96" s="44"/>
       <c r="N96" s="44"/>
@@ -3952,7 +4470,7 @@
       <c r="H97" s="46"/>
       <c r="I97" s="44"/>
       <c r="J97" s="46"/>
-      <c r="K97" s="51"/>
+      <c r="K97" s="50"/>
       <c r="L97" s="44"/>
       <c r="M97" s="44"/>
       <c r="N97" s="44"/>
@@ -3975,7 +4493,7 @@
       <c r="H98" s="46"/>
       <c r="I98" s="44"/>
       <c r="J98" s="46"/>
-      <c r="K98" s="51"/>
+      <c r="K98" s="50"/>
       <c r="L98" s="44"/>
       <c r="M98" s="44"/>
       <c r="N98" s="44"/>
@@ -3998,7 +4516,7 @@
       <c r="H99" s="46"/>
       <c r="I99" s="44"/>
       <c r="J99" s="46"/>
-      <c r="K99" s="51"/>
+      <c r="K99" s="50"/>
       <c r="L99" s="44"/>
       <c r="M99" s="44"/>
       <c r="N99" s="44"/>
@@ -4021,7 +4539,7 @@
       <c r="H100" s="46"/>
       <c r="I100" s="44"/>
       <c r="J100" s="46"/>
-      <c r="K100" s="51"/>
+      <c r="K100" s="50"/>
       <c r="L100" s="44"/>
       <c r="M100" s="44"/>
       <c r="N100" s="44"/>
@@ -4044,7 +4562,7 @@
       <c r="H101" s="46"/>
       <c r="I101" s="44"/>
       <c r="J101" s="46"/>
-      <c r="K101" s="51"/>
+      <c r="K101" s="50"/>
       <c r="L101" s="44"/>
       <c r="M101" s="44"/>
       <c r="N101" s="44"/>
@@ -4067,7 +4585,7 @@
       <c r="H102" s="46"/>
       <c r="I102" s="44"/>
       <c r="J102" s="46"/>
-      <c r="K102" s="51"/>
+      <c r="K102" s="50"/>
       <c r="L102" s="44"/>
       <c r="M102" s="44"/>
       <c r="N102" s="44"/>
@@ -4090,7 +4608,7 @@
       <c r="H103" s="46"/>
       <c r="I103" s="44"/>
       <c r="J103" s="46"/>
-      <c r="K103" s="51"/>
+      <c r="K103" s="50"/>
       <c r="L103" s="44"/>
       <c r="M103" s="44"/>
       <c r="N103" s="44"/>
@@ -4113,7 +4631,7 @@
       <c r="H104" s="46"/>
       <c r="I104" s="44"/>
       <c r="J104" s="46"/>
-      <c r="K104" s="51"/>
+      <c r="K104" s="50"/>
       <c r="L104" s="44"/>
       <c r="M104" s="44"/>
       <c r="N104" s="44"/>
@@ -4136,7 +4654,7 @@
       <c r="H105" s="46"/>
       <c r="I105" s="44"/>
       <c r="J105" s="46"/>
-      <c r="K105" s="51"/>
+      <c r="K105" s="50"/>
       <c r="L105" s="44"/>
       <c r="M105" s="44"/>
       <c r="N105" s="44"/>
@@ -4159,7 +4677,7 @@
       <c r="H106" s="46"/>
       <c r="I106" s="44"/>
       <c r="J106" s="46"/>
-      <c r="K106" s="51"/>
+      <c r="K106" s="50"/>
       <c r="L106" s="44"/>
       <c r="M106" s="44"/>
       <c r="N106" s="44"/>
@@ -4182,7 +4700,7 @@
       <c r="H107" s="46"/>
       <c r="I107" s="44"/>
       <c r="J107" s="46"/>
-      <c r="K107" s="51"/>
+      <c r="K107" s="50"/>
       <c r="L107" s="44"/>
       <c r="M107" s="44"/>
       <c r="N107" s="44"/>
@@ -4205,7 +4723,7 @@
       <c r="H108" s="46"/>
       <c r="I108" s="44"/>
       <c r="J108" s="46"/>
-      <c r="K108" s="51"/>
+      <c r="K108" s="50"/>
       <c r="L108" s="44"/>
       <c r="M108" s="44"/>
       <c r="N108" s="44"/>
@@ -4228,7 +4746,7 @@
       <c r="H109" s="46"/>
       <c r="I109" s="44"/>
       <c r="J109" s="46"/>
-      <c r="K109" s="51"/>
+      <c r="K109" s="50"/>
       <c r="L109" s="44"/>
       <c r="M109" s="44"/>
       <c r="N109" s="44"/>
@@ -4251,7 +4769,7 @@
       <c r="H110" s="46"/>
       <c r="I110" s="44"/>
       <c r="J110" s="46"/>
-      <c r="K110" s="51"/>
+      <c r="K110" s="50"/>
       <c r="L110" s="44"/>
       <c r="M110" s="44"/>
       <c r="N110" s="44"/>
@@ -4274,7 +4792,7 @@
       <c r="H111" s="46"/>
       <c r="I111" s="44"/>
       <c r="J111" s="46"/>
-      <c r="K111" s="51"/>
+      <c r="K111" s="50"/>
       <c r="L111" s="44"/>
       <c r="M111" s="44"/>
       <c r="N111" s="44"/>
@@ -4297,7 +4815,7 @@
       <c r="H112" s="46"/>
       <c r="I112" s="44"/>
       <c r="J112" s="46"/>
-      <c r="K112" s="51"/>
+      <c r="K112" s="50"/>
       <c r="L112" s="44"/>
       <c r="M112" s="44"/>
       <c r="N112" s="44"/>
@@ -4320,7 +4838,7 @@
       <c r="H113" s="46"/>
       <c r="I113" s="44"/>
       <c r="J113" s="46"/>
-      <c r="K113" s="51"/>
+      <c r="K113" s="50"/>
       <c r="L113" s="44"/>
       <c r="M113" s="44"/>
       <c r="N113" s="44"/>
@@ -4343,7 +4861,7 @@
       <c r="H114" s="46"/>
       <c r="I114" s="44"/>
       <c r="J114" s="46"/>
-      <c r="K114" s="51"/>
+      <c r="K114" s="50"/>
       <c r="L114" s="44"/>
       <c r="M114" s="44"/>
       <c r="N114" s="44"/>
@@ -4366,7 +4884,7 @@
       <c r="H115" s="46"/>
       <c r="I115" s="44"/>
       <c r="J115" s="46"/>
-      <c r="K115" s="51"/>
+      <c r="K115" s="50"/>
       <c r="L115" s="44"/>
       <c r="M115" s="44"/>
       <c r="N115" s="44"/>
@@ -4389,7 +4907,7 @@
       <c r="H116" s="46"/>
       <c r="I116" s="44"/>
       <c r="J116" s="46"/>
-      <c r="K116" s="51"/>
+      <c r="K116" s="50"/>
       <c r="L116" s="44"/>
       <c r="M116" s="44"/>
       <c r="N116" s="44"/>
@@ -4412,7 +4930,7 @@
       <c r="H117" s="46"/>
       <c r="I117" s="44"/>
       <c r="J117" s="46"/>
-      <c r="K117" s="51"/>
+      <c r="K117" s="50"/>
       <c r="L117" s="44"/>
       <c r="M117" s="44"/>
       <c r="N117" s="44"/>
@@ -4435,7 +4953,7 @@
       <c r="H118" s="46"/>
       <c r="I118" s="44"/>
       <c r="J118" s="46"/>
-      <c r="K118" s="51"/>
+      <c r="K118" s="50"/>
       <c r="L118" s="44"/>
       <c r="M118" s="44"/>
       <c r="N118" s="44"/>
@@ -4458,7 +4976,7 @@
       <c r="H119" s="46"/>
       <c r="I119" s="44"/>
       <c r="J119" s="46"/>
-      <c r="K119" s="51"/>
+      <c r="K119" s="50"/>
       <c r="L119" s="44"/>
       <c r="M119" s="44"/>
       <c r="N119" s="44"/>
@@ -4481,7 +4999,7 @@
       <c r="H120" s="46"/>
       <c r="I120" s="44"/>
       <c r="J120" s="46"/>
-      <c r="K120" s="51"/>
+      <c r="K120" s="50"/>
       <c r="L120" s="44"/>
       <c r="M120" s="44"/>
       <c r="N120" s="44"/>
@@ -4504,7 +5022,7 @@
       <c r="H121" s="46"/>
       <c r="I121" s="44"/>
       <c r="J121" s="46"/>
-      <c r="K121" s="51"/>
+      <c r="K121" s="50"/>
       <c r="L121" s="44"/>
       <c r="M121" s="44"/>
       <c r="N121" s="44"/>
@@ -4527,7 +5045,7 @@
       <c r="H122" s="46"/>
       <c r="I122" s="44"/>
       <c r="J122" s="46"/>
-      <c r="K122" s="51"/>
+      <c r="K122" s="50"/>
       <c r="L122" s="44"/>
       <c r="M122" s="44"/>
       <c r="N122" s="44"/>
@@ -4550,7 +5068,7 @@
       <c r="H123" s="46"/>
       <c r="I123" s="44"/>
       <c r="J123" s="46"/>
-      <c r="K123" s="51"/>
+      <c r="K123" s="50"/>
       <c r="L123" s="44"/>
       <c r="M123" s="44"/>
       <c r="N123" s="44"/>
@@ -4573,7 +5091,7 @@
       <c r="H124" s="46"/>
       <c r="I124" s="44"/>
       <c r="J124" s="46"/>
-      <c r="K124" s="51"/>
+      <c r="K124" s="50"/>
       <c r="L124" s="44"/>
       <c r="M124" s="44"/>
       <c r="N124" s="44"/>
@@ -4596,7 +5114,7 @@
       <c r="H125" s="46"/>
       <c r="I125" s="44"/>
       <c r="J125" s="46"/>
-      <c r="K125" s="51"/>
+      <c r="K125" s="50"/>
       <c r="L125" s="44"/>
       <c r="M125" s="44"/>
       <c r="N125" s="44"/>
@@ -4619,7 +5137,7 @@
       <c r="H126" s="46"/>
       <c r="I126" s="44"/>
       <c r="J126" s="46"/>
-      <c r="K126" s="51"/>
+      <c r="K126" s="50"/>
       <c r="L126" s="44"/>
       <c r="M126" s="44"/>
       <c r="N126" s="44"/>
@@ -4642,7 +5160,7 @@
       <c r="H127" s="46"/>
       <c r="I127" s="44"/>
       <c r="J127" s="46"/>
-      <c r="K127" s="51"/>
+      <c r="K127" s="50"/>
       <c r="L127" s="44"/>
       <c r="M127" s="44"/>
       <c r="N127" s="44"/>
@@ -4665,7 +5183,7 @@
       <c r="H128" s="46"/>
       <c r="I128" s="44"/>
       <c r="J128" s="46"/>
-      <c r="K128" s="51"/>
+      <c r="K128" s="50"/>
       <c r="L128" s="44"/>
       <c r="M128" s="44"/>
       <c r="N128" s="44"/>
@@ -4688,7 +5206,7 @@
       <c r="H129" s="46"/>
       <c r="I129" s="44"/>
       <c r="J129" s="46"/>
-      <c r="K129" s="51"/>
+      <c r="K129" s="50"/>
       <c r="L129" s="44"/>
       <c r="M129" s="44"/>
       <c r="N129" s="44"/>
@@ -4711,7 +5229,7 @@
       <c r="H130" s="46"/>
       <c r="I130" s="44"/>
       <c r="J130" s="46"/>
-      <c r="K130" s="51"/>
+      <c r="K130" s="50"/>
       <c r="L130" s="44"/>
       <c r="M130" s="44"/>
       <c r="N130" s="44"/>
@@ -4734,7 +5252,7 @@
       <c r="H131" s="46"/>
       <c r="I131" s="44"/>
       <c r="J131" s="46"/>
-      <c r="K131" s="51"/>
+      <c r="K131" s="50"/>
       <c r="L131" s="44"/>
       <c r="M131" s="44"/>
       <c r="N131" s="44"/>
@@ -4757,7 +5275,7 @@
       <c r="H132" s="46"/>
       <c r="I132" s="44"/>
       <c r="J132" s="46"/>
-      <c r="K132" s="51"/>
+      <c r="K132" s="50"/>
       <c r="L132" s="44"/>
       <c r="M132" s="44"/>
       <c r="N132" s="44"/>
@@ -4780,7 +5298,7 @@
       <c r="H133" s="46"/>
       <c r="I133" s="44"/>
       <c r="J133" s="46"/>
-      <c r="K133" s="51"/>
+      <c r="K133" s="50"/>
       <c r="L133" s="44"/>
       <c r="M133" s="44"/>
       <c r="N133" s="44"/>
@@ -4803,7 +5321,7 @@
       <c r="H134" s="46"/>
       <c r="I134" s="44"/>
       <c r="J134" s="46"/>
-      <c r="K134" s="51"/>
+      <c r="K134" s="50"/>
       <c r="L134" s="44"/>
       <c r="M134" s="44"/>
       <c r="N134" s="44"/>
@@ -4826,7 +5344,7 @@
       <c r="H135" s="46"/>
       <c r="I135" s="44"/>
       <c r="J135" s="46"/>
-      <c r="K135" s="51"/>
+      <c r="K135" s="50"/>
       <c r="L135" s="44"/>
       <c r="M135" s="44"/>
       <c r="N135" s="44"/>
@@ -4849,7 +5367,7 @@
       <c r="H136" s="46"/>
       <c r="I136" s="44"/>
       <c r="J136" s="46"/>
-      <c r="K136" s="51"/>
+      <c r="K136" s="50"/>
       <c r="L136" s="44"/>
       <c r="M136" s="44"/>
       <c r="N136" s="44"/>
@@ -4869,7 +5387,7 @@
       <c r="H137" s="46"/>
       <c r="I137" s="44"/>
       <c r="J137" s="46"/>
-      <c r="K137" s="51"/>
+      <c r="K137" s="50"/>
       <c r="L137" s="44"/>
       <c r="M137" s="44"/>
       <c r="N137" s="44"/>
@@ -4889,7 +5407,7 @@
       <c r="H138" s="46"/>
       <c r="I138" s="44"/>
       <c r="J138" s="46"/>
-      <c r="K138" s="51"/>
+      <c r="K138" s="50"/>
       <c r="L138" s="44"/>
       <c r="M138" s="44"/>
       <c r="N138" s="44"/>
@@ -4909,7 +5427,7 @@
       <c r="H139" s="46"/>
       <c r="I139" s="44"/>
       <c r="J139" s="46"/>
-      <c r="K139" s="51"/>
+      <c r="K139" s="50"/>
       <c r="L139" s="44"/>
       <c r="M139" s="44"/>
       <c r="N139" s="44"/>
@@ -4929,7 +5447,7 @@
       <c r="H140" s="46"/>
       <c r="I140" s="44"/>
       <c r="J140" s="46"/>
-      <c r="K140" s="51"/>
+      <c r="K140" s="50"/>
       <c r="L140" s="44"/>
       <c r="M140" s="44"/>
       <c r="N140" s="44"/>
@@ -4949,7 +5467,7 @@
       <c r="H141" s="46"/>
       <c r="I141" s="44"/>
       <c r="J141" s="46"/>
-      <c r="K141" s="51"/>
+      <c r="K141" s="50"/>
       <c r="L141" s="44"/>
       <c r="M141" s="44"/>
       <c r="N141" s="44"/>
@@ -4969,7 +5487,7 @@
       <c r="H142" s="46"/>
       <c r="I142" s="44"/>
       <c r="J142" s="46"/>
-      <c r="K142" s="51"/>
+      <c r="K142" s="50"/>
       <c r="L142" s="44"/>
       <c r="M142" s="44"/>
       <c r="N142" s="44"/>
@@ -4989,7 +5507,7 @@
       <c r="H143" s="46"/>
       <c r="I143" s="44"/>
       <c r="J143" s="46"/>
-      <c r="K143" s="51"/>
+      <c r="K143" s="50"/>
       <c r="L143" s="44"/>
       <c r="M143" s="44"/>
       <c r="N143" s="44"/>
@@ -5009,7 +5527,7 @@
       <c r="H144" s="46"/>
       <c r="I144" s="44"/>
       <c r="J144" s="46"/>
-      <c r="K144" s="51"/>
+      <c r="K144" s="50"/>
       <c r="L144" s="44"/>
       <c r="M144" s="44"/>
       <c r="N144" s="44"/>
@@ -5029,7 +5547,7 @@
       <c r="H145" s="46"/>
       <c r="I145" s="44"/>
       <c r="J145" s="46"/>
-      <c r="K145" s="51"/>
+      <c r="K145" s="50"/>
       <c r="L145" s="44"/>
       <c r="M145" s="44"/>
       <c r="N145" s="44"/>
@@ -5049,7 +5567,7 @@
       <c r="H146" s="46"/>
       <c r="I146" s="44"/>
       <c r="J146" s="46"/>
-      <c r="K146" s="51"/>
+      <c r="K146" s="50"/>
       <c r="L146" s="44"/>
       <c r="M146" s="44"/>
       <c r="N146" s="44"/>
@@ -5069,7 +5587,7 @@
       <c r="H147" s="46"/>
       <c r="I147" s="44"/>
       <c r="J147" s="46"/>
-      <c r="K147" s="51"/>
+      <c r="K147" s="50"/>
       <c r="L147" s="44"/>
       <c r="M147" s="44"/>
       <c r="N147" s="44"/>
@@ -5089,7 +5607,7 @@
       <c r="H148" s="46"/>
       <c r="I148" s="44"/>
       <c r="J148" s="46"/>
-      <c r="K148" s="51"/>
+      <c r="K148" s="50"/>
       <c r="L148" s="44"/>
       <c r="M148" s="44"/>
       <c r="N148" s="44"/>
@@ -5109,7 +5627,7 @@
       <c r="H149" s="46"/>
       <c r="I149" s="44"/>
       <c r="J149" s="46"/>
-      <c r="K149" s="51"/>
+      <c r="K149" s="50"/>
       <c r="L149" s="44"/>
       <c r="M149" s="44"/>
       <c r="N149" s="44"/>
@@ -5129,7 +5647,7 @@
       <c r="H150" s="46"/>
       <c r="I150" s="44"/>
       <c r="J150" s="46"/>
-      <c r="K150" s="51"/>
+      <c r="K150" s="50"/>
       <c r="L150" s="44"/>
       <c r="M150" s="44"/>
       <c r="N150" s="44"/>
@@ -5149,7 +5667,7 @@
       <c r="H151" s="46"/>
       <c r="I151" s="44"/>
       <c r="J151" s="46"/>
-      <c r="K151" s="51"/>
+      <c r="K151" s="50"/>
       <c r="L151" s="44"/>
       <c r="M151" s="44"/>
       <c r="N151" s="44"/>
@@ -5169,7 +5687,7 @@
       <c r="H152" s="46"/>
       <c r="I152" s="44"/>
       <c r="J152" s="46"/>
-      <c r="K152" s="51"/>
+      <c r="K152" s="50"/>
       <c r="L152" s="44"/>
       <c r="M152" s="44"/>
       <c r="N152" s="44"/>
@@ -5189,7 +5707,7 @@
       <c r="H153" s="46"/>
       <c r="I153" s="44"/>
       <c r="J153" s="46"/>
-      <c r="K153" s="51"/>
+      <c r="K153" s="50"/>
       <c r="L153" s="44"/>
       <c r="M153" s="44"/>
       <c r="N153" s="44"/>
@@ -5209,7 +5727,7 @@
       <c r="H154" s="46"/>
       <c r="I154" s="44"/>
       <c r="J154" s="46"/>
-      <c r="K154" s="51"/>
+      <c r="K154" s="50"/>
       <c r="L154" s="44"/>
       <c r="M154" s="44"/>
       <c r="N154" s="44"/>
@@ -5229,7 +5747,7 @@
       <c r="H155" s="46"/>
       <c r="I155" s="44"/>
       <c r="J155" s="46"/>
-      <c r="K155" s="51"/>
+      <c r="K155" s="50"/>
       <c r="L155" s="44"/>
       <c r="M155" s="44"/>
       <c r="N155" s="44"/>
@@ -5249,7 +5767,7 @@
       <c r="H156" s="46"/>
       <c r="I156" s="44"/>
       <c r="J156" s="46"/>
-      <c r="K156" s="51"/>
+      <c r="K156" s="50"/>
       <c r="L156" s="44"/>
       <c r="M156" s="44"/>
       <c r="N156" s="44"/>
@@ -5269,7 +5787,7 @@
       <c r="H157" s="46"/>
       <c r="I157" s="44"/>
       <c r="J157" s="46"/>
-      <c r="K157" s="51"/>
+      <c r="K157" s="50"/>
       <c r="L157" s="44"/>
       <c r="M157" s="44"/>
       <c r="N157" s="44"/>
@@ -5289,7 +5807,7 @@
       <c r="H158" s="46"/>
       <c r="I158" s="44"/>
       <c r="J158" s="46"/>
-      <c r="K158" s="51"/>
+      <c r="K158" s="50"/>
       <c r="L158" s="44"/>
       <c r="M158" s="44"/>
       <c r="N158" s="44"/>
@@ -5309,7 +5827,7 @@
       <c r="H159" s="46"/>
       <c r="I159" s="44"/>
       <c r="J159" s="46"/>
-      <c r="K159" s="51"/>
+      <c r="K159" s="50"/>
       <c r="L159" s="44"/>
       <c r="M159" s="44"/>
       <c r="N159" s="44"/>
@@ -5329,7 +5847,7 @@
       <c r="H160" s="46"/>
       <c r="I160" s="44"/>
       <c r="J160" s="46"/>
-      <c r="K160" s="51"/>
+      <c r="K160" s="50"/>
       <c r="L160" s="44"/>
       <c r="M160" s="44"/>
       <c r="N160" s="44"/>
@@ -5349,7 +5867,7 @@
       <c r="H161" s="46"/>
       <c r="I161" s="44"/>
       <c r="J161" s="46"/>
-      <c r="K161" s="51"/>
+      <c r="K161" s="50"/>
       <c r="L161" s="44"/>
       <c r="M161" s="44"/>
       <c r="N161" s="44"/>
@@ -5369,7 +5887,7 @@
       <c r="H162" s="46"/>
       <c r="I162" s="44"/>
       <c r="J162" s="46"/>
-      <c r="K162" s="51"/>
+      <c r="K162" s="50"/>
       <c r="L162" s="44"/>
       <c r="M162" s="44"/>
       <c r="N162" s="44"/>
@@ -5389,7 +5907,7 @@
       <c r="H163" s="46"/>
       <c r="I163" s="44"/>
       <c r="J163" s="46"/>
-      <c r="K163" s="51"/>
+      <c r="K163" s="50"/>
       <c r="L163" s="44"/>
       <c r="M163" s="44"/>
       <c r="N163" s="44"/>
@@ -5409,7 +5927,7 @@
       <c r="H164" s="46"/>
       <c r="I164" s="44"/>
       <c r="J164" s="46"/>
-      <c r="K164" s="51"/>
+      <c r="K164" s="50"/>
       <c r="L164" s="44"/>
       <c r="M164" s="44"/>
       <c r="N164" s="44"/>
@@ -5429,7 +5947,7 @@
       <c r="H165" s="46"/>
       <c r="I165" s="44"/>
       <c r="J165" s="46"/>
-      <c r="K165" s="51"/>
+      <c r="K165" s="50"/>
       <c r="L165" s="44"/>
       <c r="M165" s="44"/>
       <c r="N165" s="44"/>
@@ -5449,7 +5967,7 @@
       <c r="H166" s="46"/>
       <c r="I166" s="44"/>
       <c r="J166" s="46"/>
-      <c r="K166" s="51"/>
+      <c r="K166" s="50"/>
       <c r="L166" s="44"/>
       <c r="M166" s="44"/>
       <c r="N166" s="44"/>
@@ -5469,7 +5987,7 @@
       <c r="H167" s="46"/>
       <c r="I167" s="44"/>
       <c r="J167" s="46"/>
-      <c r="K167" s="51"/>
+      <c r="K167" s="50"/>
       <c r="L167" s="44"/>
       <c r="M167" s="44"/>
       <c r="N167" s="44"/>
@@ -5489,7 +6007,7 @@
       <c r="H168" s="46"/>
       <c r="I168" s="44"/>
       <c r="J168" s="46"/>
-      <c r="K168" s="51"/>
+      <c r="K168" s="50"/>
       <c r="L168" s="44"/>
       <c r="M168" s="44"/>
       <c r="N168" s="44"/>
@@ -5509,7 +6027,7 @@
       <c r="H169" s="46"/>
       <c r="I169" s="44"/>
       <c r="J169" s="46"/>
-      <c r="K169" s="51"/>
+      <c r="K169" s="50"/>
       <c r="L169" s="44"/>
       <c r="M169" s="44"/>
       <c r="N169" s="44"/>
@@ -5529,7 +6047,7 @@
       <c r="H170" s="46"/>
       <c r="I170" s="44"/>
       <c r="J170" s="46"/>
-      <c r="K170" s="51"/>
+      <c r="K170" s="50"/>
       <c r="L170" s="44"/>
       <c r="M170" s="44"/>
       <c r="N170" s="44"/>
@@ -5544,7 +6062,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5597,120 +6115,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -5740,19 +6258,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5790,8 +6308,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5803,8 +6321,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5816,8 +6334,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5829,8 +6347,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5842,8 +6360,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5855,8 +6373,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5868,8 +6386,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5881,8 +6399,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5943,36 +6461,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6257,36 +6775,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6571,36 +7089,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6887,36 +7405,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.1.8 20161215/版本Bug和特性计划及评审表v5.1.8_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.8 20161215/版本Bug和特性计划及评审表v5.1.8_捷豹组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="103">
   <si>
     <t>No</t>
   </si>
@@ -492,6 +492,10 @@
   </si>
   <si>
     <t>partner、partnerpc、payapi</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客登记】租客登记纸质合同勾选发送消息没有发送</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +900,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1127,18 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1381,7 +1397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="82">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1425,6 +1441,8 @@
     <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="个性色4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
@@ -1460,6 +1478,8 @@
     <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1832,7 +1852,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2496,25 +2516,59 @@
       <c r="U11" s="54"/>
       <c r="V11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="39">
+        <v>42718</v>
+      </c>
       <c r="K12" s="38"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="44"/>
+      <c r="L12" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="39">
+        <v>42718</v>
+      </c>
+      <c r="Q12" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="44">
+        <v>6482</v>
+      </c>
       <c r="S12" s="44"/>
       <c r="T12" s="51"/>
       <c r="U12" s="54"/>
@@ -6062,7 +6116,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/VersionRecords/Version 5.1.8 20161215/版本Bug和特性计划及评审表v5.1.8_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.8 20161215/版本Bug和特性计划及评审表v5.1.8_捷豹组.xlsx
@@ -22,7 +22,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.8 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.8 新特性|Fix Bug'!$A$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="101">
   <si>
     <t>No</t>
   </si>
@@ -478,13 +478,6 @@
   <si>
     <t>【租客登记】租客登记，录入付一押金自定义保存时报错，押金与租金不平</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>【租客登记】租客登记保存提示系统异常</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>partner</t>
   </si>
   <si>
     <t>【租客登记】修改租约为账单已结清未生效</t>
@@ -1849,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2019,7 +2012,7 @@
         <v>72</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>74</v>
@@ -2417,7 +2410,7 @@
         <v>91</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>74</v>
@@ -2433,7 +2426,7 @@
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M10" s="38" t="s">
         <v>75</v>
@@ -2451,14 +2444,14 @@
         <v>80</v>
       </c>
       <c r="R10" s="44">
-        <v>6225</v>
+        <v>6433</v>
       </c>
       <c r="S10" s="44"/>
       <c r="T10" s="51"/>
       <c r="U10" s="54"/>
       <c r="V10" s="53"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A11" s="36">
         <v>10</v>
       </c>
@@ -2466,7 +2459,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>100</v>
@@ -2509,66 +2502,32 @@
         <v>80</v>
       </c>
       <c r="R11" s="44">
-        <v>6433</v>
+        <v>6482</v>
       </c>
       <c r="S11" s="44"/>
       <c r="T11" s="51"/>
       <c r="U11" s="54"/>
       <c r="V11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A12" s="36">
-        <v>11</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="39">
-        <v>42718</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="39">
-        <v>42718</v>
-      </c>
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="38"/>
-      <c r="L12" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="39">
-        <v>42718</v>
-      </c>
-      <c r="Q12" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" s="44">
-        <v>6482</v>
-      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="44"/>
       <c r="S12" s="44"/>
       <c r="T12" s="51"/>
       <c r="U12" s="54"/>
@@ -2607,7 +2566,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="38"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="39"/>
       <c r="K14" s="38"/>
       <c r="L14" s="47"/>
@@ -2618,7 +2577,7 @@
       <c r="Q14" s="47"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="51"/>
+      <c r="T14" s="44"/>
       <c r="U14" s="54"/>
       <c r="V14" s="53"/>
     </row>
@@ -2657,20 +2616,20 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="47"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
-      <c r="O16" s="47"/>
+      <c r="O16" s="49"/>
       <c r="P16" s="39"/>
-      <c r="Q16" s="47"/>
+      <c r="Q16" s="49"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="54"/>
+      <c r="U16" s="56"/>
       <c r="V16" s="53"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2681,20 +2640,19 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="48"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="47"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="49"/>
+      <c r="O17" s="47"/>
       <c r="P17" s="39"/>
-      <c r="Q17" s="49"/>
+      <c r="Q17" s="47"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="53"/>
-    </row>
-    <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+      <c r="U17" s="45"/>
+    </row>
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2709,7 +2667,7 @@
       <c r="L18" s="47"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="47"/>
+      <c r="O18" s="44"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="47"/>
       <c r="R18" s="44"/>
@@ -2717,7 +2675,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2732,7 +2690,7 @@
       <c r="L19" s="47"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="44"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="47"/>
       <c r="R19" s="44"/>
@@ -2740,30 +2698,30 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="50"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="47"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="51"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
-    </row>
-    <row r="21" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+      <c r="U20" s="54"/>
+    </row>
+    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2786,7 +2744,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="54"/>
     </row>
-    <row r="22" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2809,7 +2767,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="54"/>
     </row>
-    <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2827,12 +2785,12 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="54"/>
-    </row>
-    <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="58"/>
+    </row>
+    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2850,12 +2808,12 @@
       <c r="O24" s="47"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
       <c r="U24" s="58"/>
     </row>
-    <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2867,7 +2825,7 @@
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
       <c r="K25" s="38"/>
-      <c r="L25" s="47"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
@@ -2875,10 +2833,10 @@
       <c r="Q25" s="47"/>
       <c r="R25" s="59"/>
       <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
+      <c r="T25" s="60"/>
       <c r="U25" s="58"/>
     </row>
-    <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2898,10 +2856,10 @@
       <c r="Q26" s="47"/>
       <c r="R26" s="59"/>
       <c r="S26" s="59"/>
-      <c r="T26" s="60"/>
+      <c r="T26" s="59"/>
       <c r="U26" s="58"/>
     </row>
-    <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2913,7 +2871,7 @@
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
       <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+      <c r="L27" s="47"/>
       <c r="M27" s="38"/>
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
@@ -2924,7 +2882,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="58"/>
     </row>
-    <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2942,12 +2900,12 @@
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="58"/>
-    </row>
-    <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="47"/>
+    </row>
+    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2965,12 +2923,12 @@
       <c r="O29" s="47"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="47"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="47"/>
-    </row>
-    <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="54"/>
+    </row>
+    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2993,7 +2951,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="54"/>
     </row>
-    <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -3016,7 +2974,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="54"/>
     </row>
-    <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -3027,42 +2985,44 @@
       <c r="H32" s="39"/>
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="38"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="47"/>
       <c r="M32" s="38"/>
       <c r="N32" s="47"/>
       <c r="O32" s="47"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="54"/>
-    </row>
-    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="58"/>
+    </row>
+    <row r="33" spans="1:21" ht="48" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="41"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="42"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="39"/>
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
-      <c r="K33" s="42"/>
+      <c r="K33" s="38"/>
       <c r="L33" s="47"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="47"/>
+      <c r="N33" s="38"/>
       <c r="O33" s="47"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="47"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="58"/>
-    </row>
-    <row r="34" spans="1:21" ht="48" x14ac:dyDescent="0.15">
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -3083,9 +3043,7 @@
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-      <c r="U34" s="52" t="s">
-        <v>21</v>
-      </c>
+      <c r="U34" s="54"/>
     </row>
     <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
@@ -3298,23 +3256,23 @@
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
-      <c r="D44" s="37"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="39"/>
-      <c r="I44" s="38"/>
+      <c r="I44" s="39"/>
       <c r="J44" s="39"/>
       <c r="K44" s="38"/>
       <c r="L44" s="47"/>
-      <c r="M44" s="38"/>
+      <c r="M44" s="47"/>
       <c r="N44" s="38"/>
       <c r="O44" s="47"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
       <c r="U44" s="54"/>
     </row>
     <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.15">
@@ -3344,24 +3302,24 @@
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
-      <c r="D46" s="40"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="39"/>
       <c r="I46" s="39"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="38"/>
+      <c r="K46" s="50"/>
       <c r="L46" s="47"/>
       <c r="M46" s="47"/>
       <c r="N46" s="38"/>
       <c r="O46" s="47"/>
       <c r="P46" s="39"/>
       <c r="Q46" s="47"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="54"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="45"/>
     </row>
     <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
@@ -3502,23 +3460,23 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="38"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="46"/>
       <c r="K53" s="50"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="47"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="45"/>
       <c r="R53" s="44"/>
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
@@ -3876,7 +3834,7 @@
       <c r="D69" s="45"/>
       <c r="E69" s="44"/>
       <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="46"/>
       <c r="I69" s="44"/>
       <c r="J69" s="46"/>
@@ -4007,13 +3965,13 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
       <c r="D75" s="45"/>
       <c r="E75" s="44"/>
-      <c r="F75" s="38"/>
+      <c r="F75" s="44"/>
       <c r="G75" s="44"/>
       <c r="H75" s="46"/>
       <c r="I75" s="44"/>
@@ -5405,9 +5363,6 @@
       <c r="O135" s="44"/>
       <c r="P135" s="46"/>
       <c r="Q135" s="45"/>
-      <c r="R135" s="44"/>
-      <c r="S135" s="44"/>
-      <c r="T135" s="44"/>
       <c r="U135" s="45"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.15">
@@ -6090,33 +6045,13 @@
       <c r="Q169" s="45"/>
       <c r="U169" s="45"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A170" s="44"/>
-      <c r="B170" s="44"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="45"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="46"/>
-      <c r="I170" s="44"/>
-      <c r="J170" s="46"/>
-      <c r="K170" s="50"/>
-      <c r="L170" s="44"/>
-      <c r="M170" s="44"/>
-      <c r="N170" s="44"/>
-      <c r="O170" s="44"/>
-      <c r="P170" s="46"/>
-      <c r="Q170" s="45"/>
-      <c r="U170" s="45"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/VersionRecords/Version 5.1.8 20161215/版本Bug和特性计划及评审表v5.1.8_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.8 20161215/版本Bug和特性计划及评审表v5.1.8_捷豹组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -398,10 +398,6 @@
     <rPh sb="10" eb="11">
       <t>zhi'fu</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>renter、renterembed</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -489,6 +485,29 @@
   </si>
   <si>
     <t>【租客登记】租客登记纸质合同勾选发送消息没有发送</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterembed、renterembed-fe</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸质合同查看去掉‘’发送至邮箱‘’按钮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈美</t>
+    <rPh sb="0" eb="1">
+      <t>chen'm</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东发起续租，租客未确认，订单详情点击查看合同，报错</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +912,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,6 +1151,48 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1390,7 +1451,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="96">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1436,6 +1497,13 @@
     <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="个性色4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
@@ -1473,6 +1541,13 @@
     <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1844,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2012,7 +2087,7 @@
         <v>72</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>74</v>
@@ -2107,7 +2182,7 @@
       <c r="U4" s="52"/>
       <c r="V4" s="53"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -2124,7 +2199,7 @@
         <v>72</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>74</v>
@@ -2140,13 +2215,13 @@
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="38" t="s">
         <v>75</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" s="47" t="s">
         <v>79</v>
@@ -2174,7 +2249,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>72</v>
@@ -2196,13 +2271,13 @@
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M6" s="38" t="s">
         <v>75</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" s="47" t="s">
         <v>79</v>
@@ -2230,13 +2305,13 @@
         <v>69</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>92</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>74</v>
@@ -2252,13 +2327,13 @@
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="38" t="s">
         <v>75</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>79</v>
@@ -2285,16 +2360,16 @@
         <v>68</v>
       </c>
       <c r="C8" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>95</v>
-      </c>
       <c r="E8" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>92</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>74</v>
@@ -2310,13 +2385,13 @@
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="38" t="s">
         <v>75</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O8" s="47" t="s">
         <v>79</v>
@@ -2346,13 +2421,13 @@
         <v>69</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>92</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>74</v>
@@ -2368,13 +2443,13 @@
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M9" s="38" t="s">
         <v>75</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O9" s="47" t="s">
         <v>79</v>
@@ -2401,16 +2476,16 @@
         <v>68</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>92</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>74</v>
@@ -2426,13 +2501,13 @@
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M10" s="38" t="s">
         <v>75</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O10" s="47" t="s">
         <v>79</v>
@@ -2462,13 +2537,13 @@
         <v>69</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>92</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>74</v>
@@ -2484,13 +2559,13 @@
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" s="38" t="s">
         <v>75</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O11" s="47" t="s">
         <v>79</v>
@@ -2509,49 +2584,117 @@
       <c r="U11" s="54"/>
       <c r="V11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="39">
+        <v>42718</v>
+      </c>
       <c r="K12" s="38"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="44"/>
+      <c r="L12" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="39">
+        <v>42718</v>
+      </c>
+      <c r="Q12" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="44">
+        <v>6290</v>
+      </c>
       <c r="S12" s="44"/>
       <c r="T12" s="51"/>
       <c r="U12" s="54"/>
       <c r="V12" s="53"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="39">
+        <v>42718</v>
+      </c>
       <c r="K13" s="38"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="44"/>
+      <c r="L13" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="39">
+        <v>42718</v>
+      </c>
+      <c r="Q13" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="44">
+        <v>6265</v>
+      </c>
       <c r="S13" s="44"/>
       <c r="T13" s="51"/>
       <c r="U13" s="54"/>
@@ -6051,7 +6194,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
